--- a/biology/Microbiologie/Colonne_de_Winogradsky/Colonne_de_Winogradsky.xlsx
+++ b/biology/Microbiologie/Colonne_de_Winogradsky/Colonne_de_Winogradsky.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La colonne de Winogradsky, du biologiste russe Sergueï Winogradsky (1856-1953), est un mini-écosystème basé sur le cycle du soufre et qui permet de mettre en évidence l'activité microbienne du sol dans une colonne enrichie en matières premières.
 </t>
@@ -511,7 +523,9 @@
           <t>Généralités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cycles biogéochimiques terrestres sont des phénomènes difficiles à appréhender notamment par la grande diversité des échanges entre les différents compartiments terrestres (biosphère, atmosphère, lithosphère, hydrosphère) et le rôle des organismes impliqués.
 La colonne de Winogradsky est un modèle simple et facile à réaliser permettant d'analyser et de mieux comprendre la complexité de ces interactions.
@@ -544,7 +558,9 @@
           <t>Principe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le principe repose sur le développement successif de différents types bactériens (photoorganotrophes, hétérotrophes, chimiolitotrophes) dépendant les uns des autres dans les différentes strates de la colonne.
 L'étagement des différentes couches microbiennes se fait en plusieurs étapes :
@@ -577,7 +593,9 @@
           <t>Matériel</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour fabriquer une colonne de Winogradsky, il faut :
 une boue noire (car riche en sulfure de fer) provenant d'une tourbière par exemple ;
@@ -618,7 +636,9 @@
           <t>Protocole</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour obtenir un environnement favorable au développement des différentes bactéries, il faut essayer de reconstituer un milieu idéal en amenant des composés essentiels à leur croissance.
 Tout d'abord, il faut ajouter du tampon phosphate à la boue.
@@ -658,7 +678,9 @@
           <t>Principales réactions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La cellulose du papier filtre favorise d'abord la croissance microbienne rapide qui épuise rapidement l'oxygène présent dans les sédiments et dans la colonne d'eau. Seul le haut de la colonne reste aéré car l'oxygène se diffuse très lentement dans l'eau.
 Certaines espèces de bactéries telles que Clostridium, dégradants la cellulose, commencent à se développer lorsque l'oxygène présent dans les sédiments est épuisé. Toutes les espèces de Clostridium sont anaérobies strictes cependant elles peuvent survivre sous forme de spores dans des conditions aérobies. Elles dégradent la cellulose en glucose et ensuite fermentent le glucose pour gagner de l'énergie. Produisant alors une gamme de composés organiques simples (éthanol, acide acétique, l'acide succinique, etc) ainsi que les produits de fermentations.
@@ -701,7 +723,9 @@
           <t>Les Bactéries dans la colonne de Winogradsky</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">À l’intérieur de la colonne les différentes bactéries présentes vont intervenir à différents moments du cycle dégradant et produisant chacune des composés permettant d’initier le cycle d’autres bactéries. Ainsi une succession de réactions se produit, correspondant aux différents cycles des matières fondamentaux se produisant dans les couches supérieures du sol.
 Les bactéries hétérotrophes anaérobies comme le genre Clostridium, se développent les premières : c'est elles qui dégradent la cellulose pour obtenir de l'énergie. Ces Desulfovibrio initient le cycle du soufre pour les bactéries sulfureuses photosynthétiques en produisant de l’hydrogène sulfuré (H2S).
@@ -739,6 +763,8 @@
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
